--- a/246-sfe---ajout-ayants-droits-dans-assurancemaladieobligatoire-et-assurancemaladiecomplementaire/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/246-sfe---ajout-ayants-droits-dans-assurancemaladieobligatoire-et-assurancemaladiecomplementaire/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T14:36:45+00:00</t>
+    <t>2025-01-16T14:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
